--- a/test.xlsx
+++ b/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="none" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hekunyu/Code/homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hekunyu/Code/homework/hekunyu/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21140" windowWidth="15580" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="26000" yWindow="-19560" windowWidth="12400" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="A29:C30"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
